--- a/biology/Botanique/Arturo_Eduardo_Burkart/Arturo_Eduardo_Burkart.xlsx
+++ b/biology/Botanique/Arturo_Eduardo_Burkart/Arturo_Eduardo_Burkart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arturo Eduardo Burkart, né à Buenos Aires le 25 septembre 1906 et mort le 25 avril 1975 dans la même ville, est un botaniste et ingénieur agronome argentin.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arturo Eduardo Burkart, né dans la ville de Buenos Aires le 25 septembre 1906, était le fils d'un industriel allemand, Norberto Burkart, et de son épouse Olga Rebling, également d'origine allemande. Il fit ses études primaires et secondaires à la Belgrano Schule (ultérieurement Goethe Schule) de la capitale fédérale de 1913 à 1919, et en sortit avec le titre de bachelier du collège national Manuel Belgrano fin 1924.
 En 1925, il intégra la faculté d'agronomie et de sciences vétérinaires, où son professeur Lorenzo Raimundo Parodi (1895-1966) orienta son intérêt pour la botanique. En 1926, Burkart publia sa première œuvre : Una forma de Xanthium nueva para la Flora Argentina. Il obtint le diplôme d'agronome en 1928, avec une thèse sur la génétique du genre Drosophila. Il poursuivit ses études en Allemagne à l'Institut phytotechnique de Müncheberg et à l'Institut Kaiser Wilhelm de biologie de Berlin (actuellement Société Max-Planck).
@@ -543,7 +557,9 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1930, il retourna en Argentine, où il fut nommé assistant de génétique végétale à la faculté d'agronomie et de sciences vétérinaires (1930-1937), puis comme chef de travaux pratiques de botanique de la même faculté (1931-1936). En 1936, il fut nommé directeur de l'Institut de botanique Darwinion, charge qu'il exerça jusqu'à sa mort. En 1939, il obtint la chaire de cultures fourragères de la faculté d'agronomie de La Plata, qu'il occupa jusqu'en 1961. En 1957, il fut nommé professeur titulaire de botanique des plantes vasculaires à la faculté des sciences de Buenos Aires, et promu professeur émérite en 1972. Il fut désigné membre correspondant de l'Académie nationale de sciences exactes, physiques et naturelles en 1959 et académico de número en 1964. À partir de 1961, il appartint au corps des enquêteurs scientifiques du CONICET (Consejo Nacional de Investigaciones Científicas y Técnicas).
 Il fut président de la Société argentine de botanique et de la Société argentine d'agronomie.
@@ -576,7 +592,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jorge Victor Crisci (1945-) lui a dédié le genre Burkartia.
 </t>
@@ -607,7 +625,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(es) La Vegetacion de la Argentina (avec Lucien Hauman, L.R. Parodi &amp; A.L. Cabrera), Buenos-Aires, 1947.
 (es) Las Leguminosas argentinas silvestres y cultivadas, Ed. 1, Buenos-Aires, 1943 ; ED. 2, Buenos-Aires, 1952.
